--- a/example_data/titanic_test.xlsx
+++ b/example_data/titanic_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="10">
   <si>
     <t>age</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1177</v>
+        <v>838</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -443,10 +446,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>838</v>
+        <v>783</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -458,15 +461,15 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>40.5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -478,15 +481,15 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="B5">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -503,10 +506,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -523,16 +526,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>799</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -543,16 +546,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -563,56 +566,59 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1136</v>
+        <v>352</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>304</v>
+        <v>1056</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -620,33 +626,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>352</v>
+        <v>688</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -655,15 +661,15 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -672,47 +678,47 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1104</v>
+        <v>83</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>785</v>
+        <v>136</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -720,70 +726,70 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>83</v>
+        <v>829</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>136</v>
+        <v>1281</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>829</v>
+        <v>119</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>1281</v>
+        <v>642</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -800,30 +806,33 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>119</v>
+        <v>950</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>976</v>
+        <v>790</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -837,27 +846,30 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1006</v>
+        <v>389</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>642</v>
+        <v>769</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -874,16 +886,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>950</v>
+        <v>504</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -894,10 +906,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>320</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -911,16 +926,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>790</v>
+        <v>498</v>
       </c>
       <c r="B27">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -931,99 +946,99 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>389</v>
+        <v>1232</v>
       </c>
       <c r="B28">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>769</v>
+        <v>54</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>504</v>
+        <v>1190</v>
       </c>
       <c r="B30">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>22</v>
+        <v>914</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>498</v>
+        <v>623</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1031,13 +1046,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1232</v>
+        <v>654</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1046,18 +1061,21 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>816</v>
+        <v>424</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1068,30 +1086,30 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>54</v>
+        <v>1019</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1190</v>
+        <v>1026</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1100,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1108,33 +1126,33 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>914</v>
+        <v>218</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1143,41 +1161,44 @@
         <v>9</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>961</v>
+        <v>1133</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1185,56 +1206,56 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1019</v>
+        <v>164</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1026</v>
+        <v>195</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1245,70 +1266,70 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>218</v>
+        <v>691</v>
       </c>
       <c r="B44">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>659</v>
+        <v>924</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>34.5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>593</v>
+        <v>1098</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1133</v>
+        <v>788</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1325,19 +1346,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1345,13 +1366,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1360,24 +1381,24 @@
         <v>8</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>195</v>
+        <v>515</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1385,10 +1406,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>691</v>
+        <v>1152</v>
       </c>
       <c r="B51">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1405,39 +1426,39 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>924</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>34.5</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>1098</v>
+        <v>357</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1445,10 +1466,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>788</v>
+        <v>661</v>
       </c>
       <c r="B54">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1457,44 +1478,44 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>361</v>
+        <v>638</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="B56">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -1505,30 +1526,30 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>515</v>
+        <v>1065</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>1152</v>
+        <v>689</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1545,33 +1566,36 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>900</v>
+        <v>1047</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>6</v>
+        <v>1300</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -1582,30 +1606,30 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="B61">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1617,49 +1641,55 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1175</v>
+        <v>258</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>74</v>
+        <v>536</v>
+      </c>
+      <c r="B64">
+        <v>32</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>638</v>
+        <v>981</v>
       </c>
       <c r="B65">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1671,21 +1701,21 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>367</v>
+        <v>977</v>
       </c>
       <c r="B66">
-        <v>52</v>
+        <v>20.5</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -1696,10 +1726,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1065</v>
+        <v>645</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1711,21 +1741,21 @@
         <v>8</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>689</v>
+        <v>299</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -1736,33 +1766,33 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1047</v>
+        <v>579</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1300</v>
+        <v>818</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1776,13 +1806,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="B71">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1796,10 +1826,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>697</v>
+        <v>1206</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1808,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1816,36 +1846,36 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>258</v>
+        <v>518</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>536</v>
+        <v>1079</v>
       </c>
       <c r="B74">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -1856,27 +1886,30 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>597</v>
+        <v>806</v>
+      </c>
+      <c r="B75">
+        <v>21</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>981</v>
+        <v>1263</v>
       </c>
       <c r="B76">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1888,15 +1921,15 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>977</v>
+        <v>732</v>
       </c>
       <c r="B77">
-        <v>20.5</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1913,13 +1946,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>645</v>
+        <v>880</v>
       </c>
       <c r="B78">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1933,36 +1966,36 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>299</v>
+        <v>1205</v>
       </c>
       <c r="B79">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>579</v>
+        <v>676</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -1973,7 +2006,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>948</v>
+        <v>1143</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1990,36 +2026,36 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>818</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>199</v>
+        <v>1188</v>
       </c>
       <c r="B83">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2030,10 +2066,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>1206</v>
+        <v>1275</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2050,67 +2086,70 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>518</v>
+        <v>1277</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>1079</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>806</v>
+        <v>291</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>1292</v>
+        <v>861</v>
+      </c>
+      <c r="B88">
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2119,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2127,39 +2166,39 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>1263</v>
+        <v>242</v>
       </c>
       <c r="B89">
-        <v>11.5</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>732</v>
+        <v>365</v>
       </c>
       <c r="B90">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2167,13 +2206,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="B91">
         <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -2182,15 +2221,15 @@
         <v>8</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>1205</v>
+        <v>1153</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2202,55 +2241,55 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>676</v>
+        <v>501</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>1143</v>
+        <v>1244</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="B95">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2259,47 +2298,47 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>1188</v>
+        <v>720</v>
       </c>
       <c r="B96">
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>1275</v>
+        <v>710</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2307,19 +2346,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>1277</v>
+        <v>823</v>
       </c>
       <c r="B98">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2327,36 +2366,36 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>621</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>291</v>
+        <v>559</v>
       </c>
       <c r="B100">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2367,10 +2406,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>861</v>
+        <v>1217</v>
       </c>
       <c r="B101">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2379,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2387,13 +2426,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>819</v>
+        <v>250</v>
+      </c>
+      <c r="B102">
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -2404,19 +2446,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>242</v>
+        <v>454</v>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2424,10 +2466,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>365</v>
+        <v>598</v>
       </c>
       <c r="B104">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2439,44 +2481,44 @@
         <v>9</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>893</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>1153</v>
+        <v>38</v>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2484,36 +2526,36 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>501</v>
+        <v>1119</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>1244</v>
+        <v>67</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2524,36 +2566,36 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>229</v>
+        <v>569</v>
       </c>
       <c r="B109">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="B110">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2564,50 +2606,50 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>710</v>
+        <v>44</v>
       </c>
       <c r="B111">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>823</v>
+        <v>678</v>
       </c>
       <c r="B112">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>621</v>
+        <v>729</v>
       </c>
       <c r="B113">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2616,21 +2658,24 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>106</v>
+        <v>824</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -2641,30 +2686,30 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>559</v>
+        <v>974</v>
       </c>
       <c r="B115">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>1217</v>
+        <v>964</v>
       </c>
       <c r="B116">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2681,56 +2726,56 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>250</v>
+        <v>990</v>
       </c>
       <c r="B117">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>454</v>
+        <v>1161</v>
       </c>
       <c r="B118">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="B119">
-        <v>26</v>
+        <v>0.75</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -2741,30 +2786,30 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>23</v>
+        <v>1058</v>
       </c>
       <c r="B120">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B121">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2781,36 +2826,36 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>1119</v>
+        <v>583</v>
       </c>
       <c r="B122">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>67</v>
+        <v>458</v>
       </c>
       <c r="B123">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -2821,27 +2866,30 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>569</v>
+        <v>8</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>805</v>
+        <v>939</v>
+      </c>
+      <c r="B125">
+        <v>36</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2850,21 +2898,21 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="B126">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2878,30 +2926,30 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>44</v>
+        <v>1059</v>
       </c>
       <c r="B127">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>678</v>
+        <v>791</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2918,10 +2966,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>491</v>
+        <v>326</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -2935,30 +2986,30 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>729</v>
+        <v>73</v>
       </c>
       <c r="B130">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>824</v>
+        <v>959</v>
       </c>
       <c r="B131">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2975,13 +3026,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>1253</v>
+        <v>366</v>
+      </c>
+      <c r="B132">
+        <v>54</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -2992,7 +3046,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>808</v>
+        <v>674</v>
+      </c>
+      <c r="B133">
+        <v>32</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3004,15 +3061,15 @@
         <v>8</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>974</v>
+        <v>1063</v>
       </c>
       <c r="B134">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3029,30 +3086,30 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>964</v>
+        <v>540</v>
       </c>
       <c r="B135">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>990</v>
+        <v>1082</v>
       </c>
       <c r="B136">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3064,12 +3121,15 @@
         <v>8</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>1291</v>
+        <v>1091</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3078,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3086,10 +3146,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>1161</v>
+        <v>1208</v>
       </c>
       <c r="B138">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3098,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3106,13 +3166,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="B139">
-        <v>0.75</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -3121,24 +3181,24 @@
         <v>9</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>1058</v>
+        <v>571</v>
       </c>
       <c r="B140">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3146,36 +3206,36 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="B141">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>583</v>
+        <v>947</v>
       </c>
       <c r="B142">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -3186,19 +3246,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>458</v>
+        <v>5</v>
       </c>
       <c r="B143">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -3206,13 +3266,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B144">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3226,33 +3286,36 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>939</v>
+        <v>573</v>
       </c>
       <c r="B145">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>802</v>
+        <v>375</v>
+      </c>
+      <c r="B146">
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -3263,30 +3326,30 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="B147">
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>1059</v>
+        <v>1192</v>
       </c>
       <c r="B148">
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3303,13 +3366,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -3323,16 +3386,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>928</v>
+        <v>803</v>
+      </c>
+      <c r="B150">
+        <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3340,10 +3406,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>326</v>
+        <v>554</v>
       </c>
       <c r="B151">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3360,56 +3426,59 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>37</v>
+        <v>576</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>73</v>
+        <v>741</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>959</v>
+        <v>679</v>
       </c>
       <c r="B154">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3417,19 +3486,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>366</v>
+        <v>626</v>
       </c>
       <c r="B155">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3437,19 +3506,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>674</v>
+        <v>257</v>
       </c>
       <c r="B156">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -3457,47 +3526,50 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>483</v>
+        <v>1285</v>
+      </c>
+      <c r="B157">
+        <v>32.5</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>1063</v>
+        <v>289</v>
       </c>
       <c r="B158">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>540</v>
+        <v>379</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3514,59 +3586,59 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>1082</v>
+        <v>105</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>1091</v>
+        <v>529</v>
       </c>
       <c r="B161">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>1208</v>
+        <v>325</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3574,16 +3646,19 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>1036</v>
+        <v>376</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3591,19 +3666,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>702</v>
+        <v>405</v>
       </c>
       <c r="B164">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3611,10 +3686,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>571</v>
+        <v>463</v>
       </c>
       <c r="B165">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3631,36 +3706,36 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>612</v>
+        <v>4</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>947</v>
+        <v>319</v>
       </c>
       <c r="B167">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
@@ -3671,16 +3746,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B168">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3688,33 +3766,36 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>1034</v>
+        <v>197</v>
+      </c>
+      <c r="B169">
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>5</v>
+        <v>978</v>
       </c>
       <c r="B170">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -3725,27 +3806,30 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>208</v>
+        <v>1134</v>
       </c>
       <c r="B171">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>1151</v>
+        <v>1220</v>
+      </c>
+      <c r="B172">
+        <v>32</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3754,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3762,13 +3846,13 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>573</v>
+        <v>494</v>
       </c>
       <c r="B173">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -3782,47 +3866,50 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>375</v>
+        <v>1050</v>
       </c>
       <c r="B174">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>1241</v>
+        <v>127</v>
+      </c>
+      <c r="B175">
+        <v>35</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="B176">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3831,21 +3918,24 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>768</v>
+        <v>493</v>
+      </c>
+      <c r="B177">
+        <v>31</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -3856,16 +3946,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>1192</v>
+        <v>450</v>
       </c>
       <c r="B178">
-        <v>24.5</v>
+        <v>50</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -3876,10 +3966,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>834</v>
+        <v>1084</v>
       </c>
       <c r="B179">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3896,16 +3986,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>803</v>
+        <v>418</v>
       </c>
       <c r="B180">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -3916,56 +4006,56 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>554</v>
+        <v>131</v>
       </c>
       <c r="B181">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>576</v>
+        <v>867</v>
       </c>
       <c r="B182">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>741</v>
+        <v>39</v>
       </c>
       <c r="B183">
-        <v>22.5</v>
+        <v>48</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -3976,30 +4066,30 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="B184">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>626</v>
+        <v>719</v>
       </c>
       <c r="B185">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4008,41 +4098,41 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="B186">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>1285</v>
+        <v>662</v>
       </c>
       <c r="B187">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -4056,30 +4146,33 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>384</v>
+        <v>282</v>
+      </c>
+      <c r="B188">
+        <v>52</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="B189">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4093,7 +4186,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>379</v>
+        <v>1094</v>
       </c>
       <c r="B190">
         <v>31</v>
@@ -4102,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
@@ -4113,16 +4206,19 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>1213</v>
+        <v>992</v>
+      </c>
+      <c r="B191">
+        <v>30.5</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4130,10 +4226,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="B192">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -4142,98 +4238,104 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>529</v>
+        <v>191</v>
       </c>
       <c r="B193">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>922</v>
+        <v>1066</v>
+      </c>
+      <c r="B194">
+        <v>28.5</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="B195">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>40</v>
+        <v>557</v>
+      </c>
+      <c r="B196">
+        <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>376</v>
+        <v>693</v>
       </c>
       <c r="B197">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -4244,39 +4346,39 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>405</v>
+        <v>86</v>
       </c>
       <c r="B198">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>463</v>
+        <v>687</v>
       </c>
       <c r="B199">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4284,30 +4386,33 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="B200">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>1193</v>
+        <v>728</v>
+      </c>
+      <c r="B201">
+        <v>43</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -4321,33 +4426,36 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>204</v>
+        <v>753</v>
+      </c>
+      <c r="B202">
+        <v>22</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>319</v>
+        <v>656</v>
       </c>
       <c r="B203">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
@@ -4358,27 +4466,30 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="B204">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>1199</v>
+        <v>1045</v>
+      </c>
+      <c r="B205">
+        <v>18</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4395,16 +4506,19 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>1305</v>
+        <v>53</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4412,36 +4526,36 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>197</v>
+        <v>941</v>
       </c>
       <c r="B207">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>978</v>
+        <v>240</v>
       </c>
       <c r="B208">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -4452,10 +4566,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>1134</v>
+        <v>643</v>
       </c>
       <c r="B209">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4464,24 +4578,24 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>1220</v>
+        <v>525</v>
       </c>
       <c r="B210">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -4492,53 +4606,56 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>494</v>
+        <v>1298</v>
       </c>
       <c r="B211">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>1050</v>
+        <v>1280</v>
       </c>
       <c r="B212">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>1022</v>
+        <v>539</v>
+      </c>
+      <c r="B213">
+        <v>27</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -4549,56 +4666,59 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>127</v>
+        <v>807</v>
       </c>
       <c r="B214">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>506</v>
+        <v>146</v>
       </c>
       <c r="B215">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>1168</v>
+        <v>859</v>
+      </c>
+      <c r="B216">
+        <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4606,16 +4726,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>493</v>
+        <v>912</v>
       </c>
       <c r="B217">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -4626,16 +4746,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>450</v>
+        <v>772</v>
       </c>
       <c r="B218">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -4646,10 +4766,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>1084</v>
+        <v>1120</v>
       </c>
       <c r="B219">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4661,12 +4781,15 @@
         <v>8</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>1149</v>
+        <v>776</v>
+      </c>
+      <c r="B220">
+        <v>32</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -4675,24 +4798,24 @@
         <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="B221">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -4703,19 +4826,19 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="B222">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4723,44 +4846,50 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>867</v>
+        <v>150</v>
       </c>
       <c r="B223">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>219</v>
+        <v>1259</v>
+      </c>
+      <c r="B224">
+        <v>36</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>901</v>
+        <v>761</v>
+      </c>
+      <c r="B225">
+        <v>16</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4769,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4777,16 +4906,16 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>39</v>
+        <v>979</v>
       </c>
       <c r="B226">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -4797,13 +4926,13 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B227">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -4817,19 +4946,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>719</v>
+        <v>161</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4837,30 +4966,30 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="B229">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>662</v>
+        <v>995</v>
       </c>
       <c r="B230">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -4877,19 +5006,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="B231">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4897,53 +5026,56 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>1194</v>
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>0.9167</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>122</v>
+        <v>730</v>
       </c>
       <c r="B233">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="B234">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
@@ -4954,19 +5086,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>992</v>
+        <v>246</v>
       </c>
       <c r="B235">
-        <v>30.5</v>
+        <v>55</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4974,36 +5106,36 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>249</v>
+        <v>1129</v>
       </c>
       <c r="B236">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>191</v>
+        <v>701</v>
       </c>
       <c r="B237">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -5014,16 +5146,16 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>1066</v>
+        <v>206</v>
       </c>
       <c r="B238">
-        <v>28.5</v>
+        <v>44</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -5034,36 +5166,36 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>72</v>
+        <v>1270</v>
       </c>
       <c r="B239">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>557</v>
+        <v>159</v>
       </c>
       <c r="B240">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -5074,24 +5206,30 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>1221</v>
+        <v>253</v>
+      </c>
+      <c r="B241">
+        <v>48</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>46</v>
+        <v>321</v>
+      </c>
+      <c r="B242">
+        <v>62</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5108,10 +5246,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>693</v>
+        <v>841</v>
       </c>
       <c r="B243">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5120,64 +5258,64 @@
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>86</v>
+        <v>943</v>
       </c>
       <c r="B244">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>687</v>
+        <v>20</v>
       </c>
       <c r="B245">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="B246">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
         <v>9</v>
@@ -5188,19 +5326,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>728</v>
+        <v>490</v>
       </c>
       <c r="B247">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5208,24 +5346,30 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>876</v>
+        <v>79</v>
+      </c>
+      <c r="B248">
+        <v>55</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>1250</v>
+        <v>1272</v>
+      </c>
+      <c r="B249">
+        <v>47</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5242,13 +5386,13 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B250">
-        <v>22</v>
+        <v>70.5</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -5262,10 +5406,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="B251">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5274,24 +5418,24 @@
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>334</v>
+        <v>773</v>
       </c>
       <c r="B252">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -5302,30 +5446,30 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>1045</v>
+        <v>292</v>
       </c>
       <c r="B253">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="B254">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5342,19 +5486,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>941</v>
+        <v>182</v>
       </c>
       <c r="B255">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -5362,13 +5506,13 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="B256">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5377,41 +5521,41 @@
         <v>8</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>643</v>
+        <v>487</v>
       </c>
       <c r="B257">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>525</v>
+        <v>1103</v>
       </c>
       <c r="B258">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -5422,16 +5566,16 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>1298</v>
+        <v>347</v>
       </c>
       <c r="B259">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E259" t="s">
         <v>8</v>
@@ -5442,16 +5586,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>1280</v>
+        <v>462</v>
       </c>
       <c r="B260">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -5462,79 +5606,79 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>539</v>
+        <v>340</v>
       </c>
       <c r="B261">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D261">
         <v>2</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>807</v>
+        <v>329</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E262" t="s">
         <v>9</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>146</v>
+        <v>1295</v>
       </c>
       <c r="B263">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>859</v>
+        <v>810</v>
       </c>
       <c r="B264">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5542,53 +5686,56 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>912</v>
+        <v>541</v>
       </c>
       <c r="B265">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>772</v>
+        <v>163</v>
       </c>
       <c r="B266">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>973</v>
+        <v>417</v>
+      </c>
+      <c r="B267">
+        <v>26</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267" t="s">
         <v>8</v>
@@ -5599,10 +5746,10 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>1120</v>
+        <v>690</v>
       </c>
       <c r="B268">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5614,1190 +5761,6 @@
         <v>8</v>
       </c>
       <c r="F268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="1">
-        <v>776</v>
-      </c>
-      <c r="B269">
-        <v>32</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269">
-        <v>3</v>
-      </c>
-      <c r="E269" t="s">
-        <v>8</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="1">
-        <v>999</v>
-      </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270">
-        <v>3</v>
-      </c>
-      <c r="E270" t="s">
-        <v>9</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="1">
-        <v>608</v>
-      </c>
-      <c r="B271">
-        <v>30</v>
-      </c>
-      <c r="C271" t="s">
-        <v>5</v>
-      </c>
-      <c r="D271">
-        <v>3</v>
-      </c>
-      <c r="E271" t="s">
-        <v>8</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="1">
-        <v>492</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>6</v>
-      </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s">
-        <v>8</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="1">
-        <v>1037</v>
-      </c>
-      <c r="C273" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273">
-        <v>3</v>
-      </c>
-      <c r="E273" t="s">
-        <v>9</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="1">
-        <v>1052</v>
-      </c>
-      <c r="C274" t="s">
-        <v>5</v>
-      </c>
-      <c r="D274">
-        <v>3</v>
-      </c>
-      <c r="E274" t="s">
-        <v>8</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1">
-        <v>150</v>
-      </c>
-      <c r="B275">
-        <v>40</v>
-      </c>
-      <c r="C275" t="s">
-        <v>5</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275" t="s">
-        <v>8</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="1">
-        <v>1259</v>
-      </c>
-      <c r="B276">
-        <v>36</v>
-      </c>
-      <c r="C276" t="s">
-        <v>5</v>
-      </c>
-      <c r="D276">
-        <v>3</v>
-      </c>
-      <c r="E276" t="s">
-        <v>8</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1">
-        <v>761</v>
-      </c>
-      <c r="B277">
-        <v>16</v>
-      </c>
-      <c r="C277" t="s">
-        <v>5</v>
-      </c>
-      <c r="D277">
-        <v>3</v>
-      </c>
-      <c r="E277" t="s">
-        <v>8</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="1">
-        <v>979</v>
-      </c>
-      <c r="B278">
-        <v>51</v>
-      </c>
-      <c r="C278" t="s">
-        <v>5</v>
-      </c>
-      <c r="D278">
-        <v>3</v>
-      </c>
-      <c r="E278" t="s">
-        <v>8</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="1">
-        <v>988</v>
-      </c>
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279">
-        <v>3</v>
-      </c>
-      <c r="E279" t="s">
-        <v>8</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="1">
-        <v>562</v>
-      </c>
-      <c r="B280">
-        <v>30</v>
-      </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280">
-        <v>2</v>
-      </c>
-      <c r="E280" t="s">
-        <v>9</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="1">
-        <v>1033</v>
-      </c>
-      <c r="C281" t="s">
-        <v>5</v>
-      </c>
-      <c r="D281">
-        <v>3</v>
-      </c>
-      <c r="E281" t="s">
-        <v>8</v>
-      </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1">
-        <v>161</v>
-      </c>
-      <c r="B282">
-        <v>51</v>
-      </c>
-      <c r="C282" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
-      </c>
-      <c r="E282" t="s">
-        <v>9</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="1">
-        <v>1023</v>
-      </c>
-      <c r="C283" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283">
-        <v>3</v>
-      </c>
-      <c r="E283" t="s">
-        <v>9</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="1">
-        <v>12</v>
-      </c>
-      <c r="B284">
-        <v>24</v>
-      </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-      <c r="E284" t="s">
-        <v>9</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="1">
-        <v>995</v>
-      </c>
-      <c r="B285">
-        <v>35</v>
-      </c>
-      <c r="C285" t="s">
-        <v>6</v>
-      </c>
-      <c r="D285">
-        <v>3</v>
-      </c>
-      <c r="E285" t="s">
-        <v>8</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="1">
-        <v>56</v>
-      </c>
-      <c r="B286">
-        <v>36</v>
-      </c>
-      <c r="C286" t="s">
-        <v>5</v>
-      </c>
-      <c r="D286">
-        <v>1</v>
-      </c>
-      <c r="E286" t="s">
-        <v>8</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="1">
-        <v>1</v>
-      </c>
-      <c r="B287">
-        <v>0.9167</v>
-      </c>
-      <c r="C287" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287" t="s">
-        <v>8</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="1">
-        <v>730</v>
-      </c>
-      <c r="B288">
-        <v>27</v>
-      </c>
-      <c r="C288" t="s">
-        <v>5</v>
-      </c>
-      <c r="D288">
-        <v>3</v>
-      </c>
-      <c r="E288" t="s">
-        <v>8</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="1">
-        <v>0</v>
-      </c>
-      <c r="B289">
-        <v>29</v>
-      </c>
-      <c r="C289" t="s">
-        <v>5</v>
-      </c>
-      <c r="D289">
-        <v>1</v>
-      </c>
-      <c r="E289" t="s">
-        <v>9</v>
-      </c>
-      <c r="F289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="1">
-        <v>246</v>
-      </c>
-      <c r="B290">
-        <v>55</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-      <c r="E290" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="1">
-        <v>1129</v>
-      </c>
-      <c r="B291">
-        <v>25</v>
-      </c>
-      <c r="C291" t="s">
-        <v>5</v>
-      </c>
-      <c r="D291">
-        <v>3</v>
-      </c>
-      <c r="E291" t="s">
-        <v>8</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="1">
-        <v>256</v>
-      </c>
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292">
-        <v>1</v>
-      </c>
-      <c r="E292" t="s">
-        <v>8</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="1">
-        <v>701</v>
-      </c>
-      <c r="B293">
-        <v>17</v>
-      </c>
-      <c r="C293" t="s">
-        <v>5</v>
-      </c>
-      <c r="D293">
-        <v>3</v>
-      </c>
-      <c r="E293" t="s">
-        <v>8</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="1">
-        <v>206</v>
-      </c>
-      <c r="B294">
-        <v>44</v>
-      </c>
-      <c r="C294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294">
-        <v>1</v>
-      </c>
-      <c r="E294" t="s">
-        <v>8</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="1">
-        <v>1270</v>
-      </c>
-      <c r="B295">
-        <v>28</v>
-      </c>
-      <c r="C295" t="s">
-        <v>5</v>
-      </c>
-      <c r="D295">
-        <v>3</v>
-      </c>
-      <c r="E295" t="s">
-        <v>8</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="1">
-        <v>524</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296">
-        <v>2</v>
-      </c>
-      <c r="E296" t="s">
-        <v>8</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="1">
-        <v>159</v>
-      </c>
-      <c r="B297">
-        <v>16</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-      <c r="E297" t="s">
-        <v>9</v>
-      </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1">
-        <v>253</v>
-      </c>
-      <c r="B298">
-        <v>48</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-      <c r="E298" t="s">
-        <v>9</v>
-      </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="1">
-        <v>321</v>
-      </c>
-      <c r="B299">
-        <v>62</v>
-      </c>
-      <c r="C299" t="s">
-        <v>5</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-      <c r="E299" t="s">
-        <v>8</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="1">
-        <v>841</v>
-      </c>
-      <c r="B300">
-        <v>17</v>
-      </c>
-      <c r="C300" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300">
-        <v>3</v>
-      </c>
-      <c r="E300" t="s">
-        <v>9</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="1">
-        <v>943</v>
-      </c>
-      <c r="B301">
-        <v>37</v>
-      </c>
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-      <c r="D301">
-        <v>3</v>
-      </c>
-      <c r="E301" t="s">
-        <v>9</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="1">
-        <v>20</v>
-      </c>
-      <c r="B302">
-        <v>37</v>
-      </c>
-      <c r="C302" t="s">
-        <v>5</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-      <c r="E302" t="s">
-        <v>8</v>
-      </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1">
-        <v>48</v>
-      </c>
-      <c r="B303">
-        <v>53</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303">
-        <v>1</v>
-      </c>
-      <c r="E303" t="s">
-        <v>9</v>
-      </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="1">
-        <v>490</v>
-      </c>
-      <c r="B304">
-        <v>57</v>
-      </c>
-      <c r="C304" t="s">
-        <v>5</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-      <c r="E304" t="s">
-        <v>9</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="1">
-        <v>79</v>
-      </c>
-      <c r="B305">
-        <v>55</v>
-      </c>
-      <c r="C305" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305">
-        <v>1</v>
-      </c>
-      <c r="E305" t="s">
-        <v>9</v>
-      </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="1">
-        <v>1272</v>
-      </c>
-      <c r="B306">
-        <v>47</v>
-      </c>
-      <c r="C306" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306">
-        <v>3</v>
-      </c>
-      <c r="E306" t="s">
-        <v>8</v>
-      </c>
-      <c r="F306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="1">
-        <v>727</v>
-      </c>
-      <c r="B307">
-        <v>70.5</v>
-      </c>
-      <c r="C307" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307">
-        <v>3</v>
-      </c>
-      <c r="E307" t="s">
-        <v>8</v>
-      </c>
-      <c r="F307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="1">
-        <v>634</v>
-      </c>
-      <c r="B308">
-        <v>26</v>
-      </c>
-      <c r="C308" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308">
-        <v>3</v>
-      </c>
-      <c r="E308" t="s">
-        <v>8</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="1">
-        <v>773</v>
-      </c>
-      <c r="B309">
-        <v>42</v>
-      </c>
-      <c r="C309" t="s">
-        <v>5</v>
-      </c>
-      <c r="D309">
-        <v>3</v>
-      </c>
-      <c r="E309" t="s">
-        <v>8</v>
-      </c>
-      <c r="F309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="1">
-        <v>292</v>
-      </c>
-      <c r="B310">
-        <v>48</v>
-      </c>
-      <c r="C310" t="s">
-        <v>5</v>
-      </c>
-      <c r="D310">
-        <v>1</v>
-      </c>
-      <c r="E310" t="s">
-        <v>8</v>
-      </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="1">
-        <v>185</v>
-      </c>
-      <c r="B311">
-        <v>42</v>
-      </c>
-      <c r="C311" t="s">
-        <v>5</v>
-      </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-      <c r="E311" t="s">
-        <v>8</v>
-      </c>
-      <c r="F311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="1">
-        <v>987</v>
-      </c>
-      <c r="C312" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312">
-        <v>3</v>
-      </c>
-      <c r="E312" t="s">
-        <v>9</v>
-      </c>
-      <c r="F312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="1">
-        <v>182</v>
-      </c>
-      <c r="B313">
-        <v>30</v>
-      </c>
-      <c r="C313" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313">
-        <v>1</v>
-      </c>
-      <c r="E313" t="s">
-        <v>9</v>
-      </c>
-      <c r="F313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="1">
-        <v>132</v>
-      </c>
-      <c r="B314">
-        <v>24</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
-      </c>
-      <c r="E314" t="s">
-        <v>8</v>
-      </c>
-      <c r="F314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="1">
-        <v>487</v>
-      </c>
-      <c r="B315">
-        <v>61</v>
-      </c>
-      <c r="C315" t="s">
-        <v>7</v>
-      </c>
-      <c r="D315">
-        <v>2</v>
-      </c>
-      <c r="E315" t="s">
-        <v>8</v>
-      </c>
-      <c r="F315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="1">
-        <v>940</v>
-      </c>
-      <c r="C316" t="s">
-        <v>6</v>
-      </c>
-      <c r="D316">
-        <v>3</v>
-      </c>
-      <c r="E316" t="s">
-        <v>8</v>
-      </c>
-      <c r="F316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="1">
-        <v>1103</v>
-      </c>
-      <c r="B317">
-        <v>2</v>
-      </c>
-      <c r="C317" t="s">
-        <v>5</v>
-      </c>
-      <c r="D317">
-        <v>3</v>
-      </c>
-      <c r="E317" t="s">
-        <v>8</v>
-      </c>
-      <c r="F317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="1">
-        <v>347</v>
-      </c>
-      <c r="B318">
-        <v>42</v>
-      </c>
-      <c r="C318" t="s">
-        <v>5</v>
-      </c>
-      <c r="D318">
-        <v>2</v>
-      </c>
-      <c r="E318" t="s">
-        <v>8</v>
-      </c>
-      <c r="F318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="1">
-        <v>462</v>
-      </c>
-      <c r="B319">
-        <v>24</v>
-      </c>
-      <c r="C319" t="s">
-        <v>5</v>
-      </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-      <c r="E319" t="s">
-        <v>8</v>
-      </c>
-      <c r="F319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="1">
-        <v>340</v>
-      </c>
-      <c r="B320">
-        <v>4</v>
-      </c>
-      <c r="C320" t="s">
-        <v>5</v>
-      </c>
-      <c r="D320">
-        <v>2</v>
-      </c>
-      <c r="E320" t="s">
-        <v>9</v>
-      </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="1">
-        <v>329</v>
-      </c>
-      <c r="B321">
-        <v>36</v>
-      </c>
-      <c r="C321" t="s">
-        <v>5</v>
-      </c>
-      <c r="D321">
-        <v>2</v>
-      </c>
-      <c r="E321" t="s">
-        <v>9</v>
-      </c>
-      <c r="F321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322" s="1">
-        <v>1295</v>
-      </c>
-      <c r="B322">
-        <v>21</v>
-      </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
-      <c r="D322">
-        <v>3</v>
-      </c>
-      <c r="E322" t="s">
-        <v>8</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="1">
-        <v>886</v>
-      </c>
-      <c r="C323" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323">
-        <v>3</v>
-      </c>
-      <c r="E323" t="s">
-        <v>9</v>
-      </c>
-      <c r="F323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="1">
-        <v>810</v>
-      </c>
-      <c r="B324">
-        <v>16</v>
-      </c>
-      <c r="C324" t="s">
-        <v>5</v>
-      </c>
-      <c r="D324">
-        <v>3</v>
-      </c>
-      <c r="E324" t="s">
-        <v>8</v>
-      </c>
-      <c r="F324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325" s="1">
-        <v>541</v>
-      </c>
-      <c r="B325">
-        <v>8</v>
-      </c>
-      <c r="C325" t="s">
-        <v>5</v>
-      </c>
-      <c r="D325">
-        <v>2</v>
-      </c>
-      <c r="E325" t="s">
-        <v>9</v>
-      </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326" s="1">
-        <v>163</v>
-      </c>
-      <c r="B326">
-        <v>35</v>
-      </c>
-      <c r="C326" t="s">
-        <v>5</v>
-      </c>
-      <c r="D326">
-        <v>1</v>
-      </c>
-      <c r="E326" t="s">
-        <v>9</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327" s="1">
-        <v>417</v>
-      </c>
-      <c r="B327">
-        <v>26</v>
-      </c>
-      <c r="C327" t="s">
-        <v>5</v>
-      </c>
-      <c r="D327">
-        <v>2</v>
-      </c>
-      <c r="E327" t="s">
-        <v>8</v>
-      </c>
-      <c r="F327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="1">
-        <v>931</v>
-      </c>
-      <c r="C328" t="s">
-        <v>7</v>
-      </c>
-      <c r="D328">
-        <v>3</v>
-      </c>
-      <c r="E328" t="s">
-        <v>8</v>
-      </c>
-      <c r="F328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="1">
-        <v>690</v>
-      </c>
-      <c r="B329">
-        <v>22</v>
-      </c>
-      <c r="C329" t="s">
-        <v>5</v>
-      </c>
-      <c r="D329">
-        <v>3</v>
-      </c>
-      <c r="E329" t="s">
-        <v>8</v>
-      </c>
-      <c r="F329">
         <v>0</v>
       </c>
     </row>
